--- a/nnt_lrs_sans_number.xlsx
+++ b/nnt_lrs_sans_number.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Confirmation of ETT Placement</t>
+          <t>Patient has: Confirmation of ETT Placement</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -469,7 +469,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Confirmation of ETT Placement</t>
+          <t>Patient does not have: Confirmation of ETT Placement</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -485,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Age at first syncopal episode older than 35 years</t>
+          <t>Patient has: Age at first syncopal episode older than 35 years</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -512,7 +512,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of atrial fibrillation or flutter</t>
+          <t>Patient has: History of atrial fibrillation or flutter</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -520,7 +520,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Known severe structural heart disease</t>
+          <t>Patient has: Known severe structural heart disease</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -528,7 +528,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dyspnea prior syncope</t>
+          <t>Patient has: Dyspnea prior syncope</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -536,7 +536,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chest pain/angina prior to syncope</t>
+          <t>Patient has: Chest pain/angina prior to syncope</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -544,7 +544,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cyanotic during syncope</t>
+          <t>Patient has: Cyanotic during syncope</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -552,7 +552,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>High-sensitivity cardiac troponin I &gt;31.3 pg/mL</t>
+          <t>Patient has: High-sensitivity cardiac troponin T &gt;42 pg/mL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -560,7 +560,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NT-proBNP ≥210.5 pg/ml</t>
+          <t>Patient has: High-sensitivity cardiac troponin I &gt;31.3 pg/mL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -568,7 +568,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NT-proBNP &gt;1966 pg/ml</t>
+          <t>Patient has: NT-proBNP ≥210.5 pg/ml</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -576,7 +576,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BNP &gt;302 pg/mL</t>
+          <t>Patient has: NT-proBNP &gt;1966 pg/ml</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -584,7 +584,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EGSYS Score 3 or more</t>
+          <t>Patient has: BNP &gt;302 pg/mL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -592,7 +592,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Vasovagal Score less than -2</t>
+          <t>Patient has: Heart disease, abnormal ECG, or both</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -600,7 +600,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Age at first syncopal episode 35 years or younger</t>
+          <t>Patient has: EGSYS Score 3 or more</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -608,7 +608,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Normal BNP level</t>
+          <t>Patient has: Vasovagal Score less than -2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -616,7 +616,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Absence of heart disease, abnormal ECG or both</t>
+          <t>Patient does not have: Age at first syncopal episode 35 years or younger</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -624,7 +624,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EGSYS Score less than 3</t>
+          <t>Patient does not have: Normal cardiac troponin T or I</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -632,10 +632,34 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Vasovagal score -2 or more</t>
+          <t>Patient does not have: Normal BNP level</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Patient does not have: Absence of heart disease, abnormal ECG or both</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Patient does not have: EGSYS Score less than 3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Patient does not have: Vasovagal score -2 or more</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -667,7 +691,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pupillary dilation</t>
+          <t>Patient has: Pupillary dilation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -675,7 +699,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Compression or absence of the basal cisterns on CT</t>
+          <t>Patient has: Compression or absence of the basal cisterns on CT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -683,7 +707,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Midline shift &gt;10 mm on CT</t>
+          <t>Patient has: Midline shift &gt;10 mm on CT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -691,7 +715,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pupillary dilation</t>
+          <t>Patient does not have: Pupillary dilation</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -699,7 +723,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Compression or absence of the basal cisterns on CT</t>
+          <t>Patient does not have: Compression or absence of the basal cisterns on CT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -707,7 +731,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Midline shift &gt;10 mm on CT</t>
+          <t>Patient does not have: Midline shift &gt;10 mm on CT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -742,7 +766,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ankle-brachial index: Sensitivity = 49% (95% CI = 39% to 60%)</t>
+          <t>Patient has: Ankle-brachial index: Sensitivity = 49% (95% CI = 39% to 60%)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -750,7 +774,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ankle-brachial index: Specificity = not reported (data not pooled due to significant heterogeneity)</t>
+          <t>Patient does not have: Ankle-brachial index: Specificity = not reported (data not pooled due to significant heterogeneity)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -758,7 +782,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ankle-brachial index without any hard or soft signs (proximity to major
+          <t>Patient does not have: Ankle-brachial index without any hard or soft signs (proximity to major
 artery was not studied)</t>
         </is>
       </c>
@@ -794,7 +818,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Retinal detachment diagnosis</t>
+          <t>Patient has: Retinal detachment diagnosis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -802,7 +826,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Retinal detachment diagnosis</t>
+          <t>Patient does not have: Retinal detachment diagnosis</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -837,7 +861,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Limb claudication</t>
+          <t>Patient has: Limb claudication</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -845,7 +869,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jaw claudication</t>
+          <t>Patient has: Jaw claudication</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -853,7 +877,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Temporal artery thickening</t>
+          <t>Patient has: Temporal artery thickening</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -861,7 +885,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Temporal artery loss of pulse</t>
+          <t>Patient has: Temporal artery loss of pulse</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -869,7 +893,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Platelet count &gt;400 × 103/μL</t>
+          <t>Patient has: Platelet count &gt;400 × 103/μL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -877,7 +901,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Temporal tenderness</t>
+          <t>Patient has: Temporal tenderness</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -885,7 +909,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ESR &gt;100 mm/h</t>
+          <t>Patient has: ESR &gt;100 mm/h</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -893,7 +917,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ESR &lt;40 mm/h</t>
+          <t>Patient does not have: ESR &lt;40 mm/h</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -901,7 +925,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C reactive protein &lt;2.5 mg/dL</t>
+          <t>Patient does not have: C reactive protein &lt;2.5 mg/dL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -909,7 +933,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Age &lt;70 years</t>
+          <t>Patient does not have: Age &lt;70 years</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -944,7 +968,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Small bowel obstruction diagnosis</t>
+          <t>Patient has: Small bowel obstruction diagnosis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -952,7 +976,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Small bowel obstruction diagnosis</t>
+          <t>Patient does not have: Small bowel obstruction diagnosis</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -987,7 +1011,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rapid plasma reagin (RPR)</t>
+          <t>Patient has: Rapid plasma reagin (RPR)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -995,7 +1019,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fluorescent treponemal antibody-absorption (FTA-ABS)</t>
+          <t>Patient has: Fluorescent treponemal antibody-absorption (FTA-ABS)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -1003,7 +1027,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Treponema pallidum particle agglutination (TP-PA)</t>
+          <t>Patient has: Treponema pallidum particle agglutination (TP-PA)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -1011,7 +1035,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RPR</t>
+          <t>Patient does not have: RPR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -1019,7 +1043,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FTA-ABS</t>
+          <t>Patient does not have: FTA-ABS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -1027,7 +1051,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TP-PA</t>
+          <t>Patient does not have: TP-PA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -1062,7 +1086,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pneumonia diagnosis</t>
+          <t>Patient has: Pneumonia diagnosis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -1070,7 +1094,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pneumonia diagnosis</t>
+          <t>Patient does not have: Pneumonia diagnosis</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -1105,7 +1129,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Significant thoracic injuries or abdominal free fluid</t>
+          <t>Patient has: Significant thoracic injuries or abdominal free fluid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -1113,7 +1137,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Significant thoracic injuries or abdominal free fluid</t>
+          <t>Patient does not have: Significant thoracic injuries or abdominal free fluid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -1148,7 +1172,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Symptoms:Visual reduction</t>
+          <t>Patient has: Symptoms:Visual reduction</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -1156,7 +1180,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Symptoms:&gt;10 new floaters</t>
+          <t>Patient has: Symptoms:&gt;10 new floaters</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -1164,7 +1188,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Signs:Vitreous hemorrhage</t>
+          <t>Patient has: Signs:Vitreous hemorrhage</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -1172,7 +1196,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Signs:Vitreous pigment</t>
+          <t>Patient has: Signs:Vitreous pigment</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -1180,7 +1204,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Signs:Vitreous pigment</t>
+          <t>Patient does not have: Signs:Vitreous pigment</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -1196,7 +1220,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1215,7 +1239,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Signs:Upper lip bite test grade 3</t>
+          <t>Patient has: History:History of difficult intubation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -1223,7 +1247,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Signs:Shorter hyomental distance</t>
+          <t>Patient has: Signs:Upper lip bite test grade 3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -1231,7 +1255,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Signs:Retrognathia</t>
+          <t>Patient has: Signs:Shorter hyomental distance</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -1239,7 +1263,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Signs:Combination of findings on Wilson score</t>
+          <t>Patient has: Signs:Retrognathia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -1247,7 +1271,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Signs:Impaired neck mobility</t>
+          <t>Patient has: Signs:Combination of findings on Wilson score</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -1255,7 +1279,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Signs:Modified Mallampati score≥3</t>
+          <t>Patient has: Signs:Impaired neck mobility</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -1263,7 +1287,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Signs:Upper lip bite test grade 3</t>
+          <t>Patient has: Signs:Modified Mallampati score≥3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -1271,7 +1295,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Signs:Shorter hyomental distance</t>
+          <t>Patient does not have: History:Absence of a history of difficult intubation</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -1279,7 +1303,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Signs:Retrognathia</t>
+          <t>Patient does not have: Signs:Upper lip bite test grade 3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -1287,7 +1311,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Signs:Combination of findings on Wilson score</t>
+          <t>Patient does not have: Signs:Shorter hyomental distance</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -1295,7 +1319,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Signs:Impaired neck mobility</t>
+          <t>Patient does not have: Signs:Retrognathia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -1303,10 +1327,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Signs:Modified Mallampati score≥3</t>
+          <t>Patient does not have: Signs:Combination of findings on Wilson score</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Patient does not have: Signs:Impaired neck mobility</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Patient does not have: Signs:Modified Mallampati score≥3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1338,7 +1378,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Capillary refill time</t>
+          <t>Patient has: Capillary refill time</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -1346,7 +1386,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sunken eyes</t>
+          <t>Patient has: Sunken eyes</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -1354,7 +1394,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Speech not clear or expressive</t>
+          <t>Patient has: Speech not clear or expressive</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -1362,7 +1402,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dry axilla</t>
+          <t>Patient has: Dry axilla</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -1370,7 +1410,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Upper or Lower extremity weakness</t>
+          <t>Patient has: Upper or Lower extremity weakness</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -1378,7 +1418,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dry tongue</t>
+          <t>Patient has: Dry tongue</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -1386,7 +1426,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Confusion</t>
+          <t>Patient has: Confusion</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -1394,7 +1434,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dry mouth and nose m.m.</t>
+          <t>Patient has: Dry mouth and nose m.m.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -1402,7 +1442,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tongue longitutinal furrows</t>
+          <t>Patient has: Tongue longitutinal furrows</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -1410,7 +1450,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pulse change &gt; 30bpm</t>
+          <t>Patient has: Pulse change &gt; 30bpm</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -1418,7 +1458,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Postural hypotension (SVP decr. &gt; 20 mmHg)</t>
+          <t>Patient has: Postural hypotension (SVP decr. &gt; 20 mmHg)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -1426,7 +1466,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dry mouth and nose m.m.</t>
+          <t>Patient does not have: Dry mouth and nose m.m.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -1434,7 +1474,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tongue longitutinal furrows</t>
+          <t>Patient does not have: Tongue longitutinal furrows</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -1442,7 +1482,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sunken eyes</t>
+          <t>Patient does not have: Sunken eyes</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -1450,7 +1490,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Speech not clear or expressive</t>
+          <t>Patient does not have: Speech not clear or expressive</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -1458,7 +1498,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dry tongue</t>
+          <t>Patient does not have: Dry tongue</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -1466,7 +1506,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dry axilla</t>
+          <t>Patient does not have: Dry axilla</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -1474,7 +1514,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Confusion</t>
+          <t>Patient does not have: Confusion</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -1482,7 +1522,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Capillary refill time</t>
+          <t>Patient does not have: Capillary refill time</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -1490,7 +1530,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Upper or Lower extremity weakness</t>
+          <t>Patient does not have: Upper or Lower extremity weakness</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -1498,7 +1538,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pulse change &gt; 30bpm</t>
+          <t>Patient does not have: Pulse change &gt; 30bpm</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1506,7 +1546,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Postural hypotension (SVP decr. &gt; 20 mmHg)</t>
+          <t>Patient does not have: Postural hypotension (SVP decr. &gt; 20 mmHg)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1541,7 +1581,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hyperbilirubinemia</t>
+          <t>Patient has: Hyperbilirubinemia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -1549,7 +1589,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Splenomegaly</t>
+          <t>Patient has: Splenomegaly</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -1557,7 +1597,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Thrombocytopenia</t>
+          <t>Patient has: Thrombocytopenia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -1565,7 +1605,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fever</t>
+          <t>Patient has: Fever</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -1573,7 +1613,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jaundice/icterus</t>
+          <t>Patient has: Jaundice/icterus</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -1581,7 +1621,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pallor</t>
+          <t>Patient has: Pallor</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -1589,7 +1629,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hepatomegaly</t>
+          <t>Patient has: Hepatomegaly</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -1597,7 +1637,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Vomiting</t>
+          <t>Patient has: Vomiting</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -1605,7 +1645,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Headache</t>
+          <t>Patient has: Headache</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -1613,7 +1653,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chills/rigors</t>
+          <t>Patient has: Chills/rigors</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -1621,7 +1661,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nausea</t>
+          <t>Patient has: Nausea</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -1629,7 +1669,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Diarrhea</t>
+          <t>Patient has: Diarrhea</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -1637,7 +1677,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dyspnea</t>
+          <t>Patient has: Dyspnea</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -1645,7 +1685,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cough</t>
+          <t>Patient has: Cough</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -1653,7 +1693,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fever</t>
+          <t>Patient does not have: Fever</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -1661,7 +1701,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Thrombocytopenia</t>
+          <t>Patient does not have: Thrombocytopenia</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -1669,7 +1709,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Headache</t>
+          <t>Patient does not have: Headache</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -1677,7 +1717,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chills/rigors</t>
+          <t>Patient does not have: Chills/rigors</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -1685,7 +1725,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Hyperbilirubinemia</t>
+          <t>Patient does not have: Hyperbilirubinemia</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -1693,7 +1733,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Splenomegaly</t>
+          <t>Patient does not have: Splenomegaly</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -1701,7 +1741,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pallor</t>
+          <t>Patient does not have: Pallor</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1709,7 +1749,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Vomiting</t>
+          <t>Patient does not have: Vomiting</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1717,7 +1757,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nausea</t>
+          <t>Patient does not have: Nausea</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1725,7 +1765,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jaundice/icterus</t>
+          <t>Patient does not have: Jaundice/icterus</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1733,7 +1773,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Hepatomegaly</t>
+          <t>Patient does not have: Hepatomegaly</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -1741,7 +1781,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Dyspnea</t>
+          <t>Patient does not have: Dyspnea</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -1749,7 +1789,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Diarrhea</t>
+          <t>Patient does not have: Diarrhea</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -1757,7 +1797,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Cough</t>
+          <t>Patient does not have: Cough</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1792,7 +1832,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bone Exposure</t>
+          <t>Patient has: Bone Exposure</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -1800,7 +1840,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ulcer Area &gt; 2cm²</t>
+          <t>Patient has: Ulcer Area &gt; 2cm²</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -1808,7 +1848,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Positive probe-to-bone test</t>
+          <t>Patient has: Positive probe-to-bone test</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -1816,7 +1856,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Clinical Gestalt</t>
+          <t>Patient has: Clinical Gestalt</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -1824,7 +1864,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ulcer inflammation (erythema, swelling, purulence)</t>
+          <t>Patient has: Ulcer inflammation (erythema, swelling, purulence)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -1832,7 +1872,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ESR &gt; 70 mm/h</t>
+          <t>Patient has: ESR &gt; 70 mm/h</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -1840,7 +1880,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Abnormal findings [indicating osteomyelitis] on plain Radiograph</t>
+          <t>Patient has: Abnormal findings [indicating osteomyelitis] on plain Radiograph</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -1848,7 +1888,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Positive probe-to-bone test</t>
+          <t>Patient does not have: Positive probe-to-bone test</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -1856,7 +1896,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ulcer Area &gt; 2cm²</t>
+          <t>Patient does not have: Ulcer Area &gt; 2cm²</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -1864,7 +1904,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Clinical Gestalt</t>
+          <t>Patient does not have: Clinical Gestalt</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -1872,7 +1912,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bone Exposure</t>
+          <t>Patient does not have: Bone Exposure</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -1880,7 +1920,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ulcer inflammation (erythema, swelling, purulence)</t>
+          <t>Patient does not have: Ulcer inflammation (erythema, swelling, purulence)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -1888,7 +1928,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ESR &gt; 70 mm/h</t>
+          <t>Patient does not have: ESR &gt; 70 mm/h</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -1896,7 +1936,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Abnormal findings [indicating osteomyelitis] on plain Radiograph</t>
+          <t>Patient does not have: Abnormal findings [indicating osteomyelitis] on plain Radiograph</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -1904,7 +1944,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Swab Culture</t>
+          <t>Patient does not have: Swab Culture</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -1939,7 +1979,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Posttussive Emesis</t>
+          <t>Patient has: Posttussive Emesis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -1947,7 +1987,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Paroxysmal Cough</t>
+          <t>Patient has: Paroxysmal Cough</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -1955,7 +1995,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Inspiratory Whoop</t>
+          <t>Patient has: Inspiratory Whoop</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -1963,7 +2003,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Paroxysmal Cough</t>
+          <t>Patient does not have: Paroxysmal Cough</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -1971,7 +2011,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Posttussive emesis</t>
+          <t>Patient does not have: Posttussive emesis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -1979,7 +2019,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Inspiratory Whoop</t>
+          <t>Patient does not have: Inspiratory Whoop</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -2014,7 +2054,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Strep exposure in the past 2 weeks</t>
+          <t>Patient has: Strep exposure in the past 2 weeks</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -2022,7 +2062,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Myalgias</t>
+          <t>Patient has: Myalgias</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -2030,7 +2070,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>No cough</t>
+          <t>Patient has: No cough</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -2038,7 +2078,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of sore throat</t>
+          <t>Patient has: History of sore throat</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -2046,7 +2086,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Reported fever</t>
+          <t>Patient has: Reported fever</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -2054,7 +2094,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Headache</t>
+          <t>Patient has: Headache</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -2062,7 +2102,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nausea</t>
+          <t>Patient has: Nausea</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -2070,7 +2110,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Duration &lt;3d</t>
+          <t>Patient has: Duration &lt;3d</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -2078,7 +2118,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tonsillar exudates</t>
+          <t>Patient has: Tonsillar exudates</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -2086,7 +2126,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pharyngeal exudates</t>
+          <t>Patient has: Pharyngeal exudates</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -2094,7 +2134,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tonsillar or pharyngeal exudates</t>
+          <t>Patient has: Tonsillar or pharyngeal exudates</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -2102,7 +2142,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Any Exudates</t>
+          <t>Patient has: Any Exudates</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -2110,7 +2150,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tonsillar swelling/enlargement</t>
+          <t>Patient has: Tonsillar swelling/enlargement</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -2118,7 +2158,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Palatine petechiae</t>
+          <t>Patient has: Palatine petechiae</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -2126,7 +2166,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ant. Cervical lymph node tenderness</t>
+          <t>Patient has: Ant. Cervical lymph node tenderness</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -2134,7 +2174,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Measured temp &gt;37.8 C</t>
+          <t>Patient has: Measured temp &gt;37.8 C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -2142,7 +2182,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Male sex</t>
+          <t>Patient has: Male sex</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -2150,7 +2190,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>No coryza</t>
+          <t>Patient has: No coryza</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -2158,7 +2198,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Measured temp &gt;=38.3 °C</t>
+          <t>Patient has: Measured temp &gt;=38.3 °C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -2166,7 +2206,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pharynx injected</t>
+          <t>Patient has: Pharynx injected</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -2174,7 +2214,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ant. Cervical lymph node swollen/enlarged</t>
+          <t>Patient has: Ant. Cervical lymph node swollen/enlarged</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -2182,7 +2222,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Rash</t>
+          <t>Patient has: Rash</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -2190,7 +2230,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4 Points</t>
+          <t>Patient has: 4 Points</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -2198,7 +2238,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3 Points</t>
+          <t>Patient has: 3 Points</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -2206,7 +2246,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2 Points</t>
+          <t>Patient has: 2 Points</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -2214,7 +2254,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0 Points</t>
+          <t>Patient has: 0 Points</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -2222,7 +2262,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1 Points</t>
+          <t>Patient has: 1 Points</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -2230,7 +2270,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Duration &lt;3d</t>
+          <t>Patient does not have: Duration &lt;3d</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -2238,7 +2278,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Reported fever</t>
+          <t>Patient does not have: Reported fever</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -2246,7 +2286,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>No cough</t>
+          <t>Patient does not have: cough</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -2254,7 +2294,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Headache</t>
+          <t>Patient does not have: Headache</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -2262,7 +2302,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>History of sore throat</t>
+          <t>Patient does not have: History of sore throat</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -2270,7 +2310,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Nausea</t>
+          <t>Patient does not have: Nausea</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -2278,7 +2318,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Strep exposure previous 2 wk</t>
+          <t>Patient does not have: Strep exposure previous 2 wk</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -2286,7 +2326,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Myalgias</t>
+          <t>Patient does not have: Myalgias</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -2294,7 +2334,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Pharynx injected</t>
+          <t>Patient does not have: Pharynx injected</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -2302,7 +2342,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Measured temp &gt;37.8 C</t>
+          <t>Patient does not have: Measured temp &gt;37.8 C</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -2310,7 +2350,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>No coryza</t>
+          <t>Patient does not have: coryza</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -2318,7 +2358,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Measured temp &gt;=38.3 C</t>
+          <t>Patient does not have: Measured temp &gt;=38.3 C</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -2326,7 +2366,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ant. Cervical lymph node swollen/enlarged</t>
+          <t>Patient does not have: Ant. Cervical lymph node swollen/enlarged</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -2334,7 +2374,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Ant. Cervical lymph node tenderness</t>
+          <t>Patient does not have: Ant. Cervical lymph node tenderness</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -2342,7 +2382,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Tonsillar swelling/enlargement</t>
+          <t>Patient does not have: Tonsillar swelling/enlargement</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -2350,7 +2390,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Any Exudates</t>
+          <t>Patient does not have: Any Exudates</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -2358,7 +2398,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Tonsillar exudates</t>
+          <t>Patient does not have: Tonsillar exudates</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -2366,7 +2406,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Tonsillar or pharyngeal exudates</t>
+          <t>Patient does not have: Tonsillar or pharyngeal exudates</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -2374,7 +2414,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Pharyngeal exudates</t>
+          <t>Patient does not have: Pharyngeal exudates</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -2382,7 +2422,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Rash</t>
+          <t>Patient does not have: Rash</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -2390,7 +2430,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Palatine petechiae</t>
+          <t>Patient does not have: Palatine petechiae</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -2398,7 +2438,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Male sex</t>
+          <t>Patient does not have: Male sex</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -2433,7 +2473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Age &lt;=60y</t>
+          <t>Patient has: Age &lt;=60y</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -2441,7 +2481,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alcohol consumption</t>
+          <t>Patient has: Alcohol consumption</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -2449,7 +2489,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Patient has: Male</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -2457,7 +2497,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hypertension</t>
+          <t>Patient has: Hypertension</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -2465,7 +2505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cigarette smoking</t>
+          <t>Patient has: Cigarette smoking</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -2473,7 +2513,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Diabetes mellitus</t>
+          <t>Patient has: Diabetes mellitus</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -2481,7 +2521,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Prior stroke</t>
+          <t>Patient has: Prior stroke</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -2489,7 +2529,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hyperlipidemia</t>
+          <t>Patient has: Hyperlipidemia</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -2497,7 +2537,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Coronary artery disease</t>
+          <t>Patient has: Coronary artery disease</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -2505,7 +2545,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Atrial fibrillation</t>
+          <t>Patient has: Atrial fibrillation</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -2513,7 +2553,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Peripheral artery disease</t>
+          <t>Patient has: Peripheral artery disease</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -2521,7 +2561,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Prior TIA</t>
+          <t>Patient has: Prior TIA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -2529,7 +2569,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Seizures w/ neurological deficit</t>
+          <t>Patient has: Seizures w/ neurological deficit</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -2537,7 +2577,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Vomiting</t>
+          <t>Patient has: Vomiting</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -2545,7 +2585,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Headache</t>
+          <t>Patient has: Headache</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -2553,7 +2593,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Loss of consciousness</t>
+          <t>Patient has: Loss of consciousness</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -2561,7 +2601,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Acute onset deficit</t>
+          <t>Patient has: Acute onset deficit</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -2569,7 +2609,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Kernig's or Brudzinski's or both</t>
+          <t>Patient has: Kernig's or Brudzinski's or both</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -2577,7 +2617,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LOC: coma</t>
+          <t>Patient has: LOC: coma</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -2585,7 +2625,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Neck stiffness</t>
+          <t>Patient has: Neck stiffness</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -2593,7 +2633,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Diastolic BP &gt;110 mmHg</t>
+          <t>Patient has: Diastolic BP &gt;110 mmHg</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -2601,7 +2641,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LOC: drowsy</t>
+          <t>Patient has: LOC: drowsy</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -2609,7 +2649,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Plantar response: both extensor</t>
+          <t>Patient has: Plantar response: both extensor</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -2617,7 +2657,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Plantar response: single extensor</t>
+          <t>Patient has: Plantar response: single extensor</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -2625,7 +2665,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Hemiparesis</t>
+          <t>Patient has: Hemiparesis</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -2633,7 +2673,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Plantar response: both flexor</t>
+          <t>Patient has: Plantar response: both flexor</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -2641,7 +2681,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LOC: alert</t>
+          <t>Patient has: LOC: alert</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -2649,7 +2689,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Cervical bruit</t>
+          <t>Patient has: Cervical bruit</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -2657,7 +2697,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Xanthochromia in CSF</t>
+          <t>Patient has: Xanthochromia in CSF</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -2665,7 +2705,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Atrial fibrillation on ECG</t>
+          <t>Patient has: Atrial fibrillation on ECG</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -2673,7 +2713,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Clinician's Gestalt</t>
+          <t>Patient has: Clinician's Gestalt</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -2681,7 +2721,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Age &lt;=60y</t>
+          <t>Patient does not have: Age &lt;=60y</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -2689,7 +2729,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Alcohol consumption</t>
+          <t>Patient does not have: Alcohol consumption</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -2697,7 +2737,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Patient does not have: Male</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -2705,7 +2745,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Hypertension</t>
+          <t>Patient does not have: Hypertension</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -2713,7 +2753,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Diabetes mellitus</t>
+          <t>Patient does not have: Diabetes mellitus</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -2721,7 +2761,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Prior stroke</t>
+          <t>Patient does not have: Prior stroke</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -2729,7 +2769,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Hyperlipidemia</t>
+          <t>Patient does not have: Hyperlipidemia</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -2737,7 +2777,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Coronary artery disease</t>
+          <t>Patient does not have: Coronary artery disease</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -2745,7 +2785,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Atrial fibrillation</t>
+          <t>Patient does not have: Atrial fibrillation</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -2753,7 +2793,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Peripheral artery disease</t>
+          <t>Patient does not have: Peripheral artery disease</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -2761,7 +2801,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Prior TIA</t>
+          <t>Patient does not have: Prior TIA</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -2769,7 +2809,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Cigarette smoking</t>
+          <t>Patient does not have: Cigarette smoking</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -2777,7 +2817,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Vomiting</t>
+          <t>Patient does not have: Vomiting</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -2785,7 +2825,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Headache</t>
+          <t>Patient does not have: Headache</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -2793,7 +2833,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Loss of consciousness</t>
+          <t>Patient does not have: Loss of consciousness</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -2801,7 +2841,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Seizures w/ neurological deficit</t>
+          <t>Patient does not have: Seizures w/ neurological deficit</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -2809,7 +2849,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Acute onset deficit</t>
+          <t>Patient does not have: Acute onset deficit</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -2817,7 +2857,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Diastolic BP &gt;110 mmHg</t>
+          <t>Patient does not have: Diastolic BP &gt;110 mmHg</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -2825,7 +2865,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Neck stiffness</t>
+          <t>Patient does not have: Neck stiffness</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -2833,7 +2873,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Kernig's or Brudzinski's or both</t>
+          <t>Patient does not have: Kernig's or Brudzinski's or both</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -2841,7 +2881,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Hemiparesis</t>
+          <t>Patient does not have: Hemiparesis</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -2849,7 +2889,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Cervical bruit</t>
+          <t>Patient does not have: Cervical bruit</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -2857,7 +2897,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Xanthochromia in CSF</t>
+          <t>Patient does not have: Xanthochromia in CSF</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -2865,7 +2905,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Atrial fibrillation on ECG</t>
+          <t>Patient does not have: Atrial fibrillation on ECG</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2873,7 +2913,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Clinician's Gestalt</t>
+          <t>Patient does not have: Clinician's Gestalt</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -2908,7 +2948,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>≥ 4POUNDing Criteria</t>
+          <t>Patient has: ≥ 4POUNDing Criteria</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -2943,7 +2983,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Food in mouth after swallowing</t>
+          <t>Patient has: Food in mouth after swallowing</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -2951,7 +2991,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Unintelligible speech after prolonged speaking</t>
+          <t>Patient has: Unintelligible speech after prolonged speaking</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -2959,7 +2999,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sleep Test</t>
+          <t>Patient has: Sleep Test</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -2967,7 +3007,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ice Test</t>
+          <t>Patient has: Ice Test</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -2975,7 +3015,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rest Test</t>
+          <t>Patient has: Rest Test</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -2983,7 +3023,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Anticholinesterase Test</t>
+          <t>Patient has: Anticholinesterase Test</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -2991,7 +3031,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Quiver eye movements</t>
+          <t>Patient has: Quiver eye movements</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -2999,7 +3039,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Unintelligible speech after prolonged speaking</t>
+          <t>Patient does not have: Unintelligible speech after prolonged speaking</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -3007,7 +3047,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Food in mouth after swallowing</t>
+          <t>Patient does not have: Food in mouth after swallowing</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -3015,7 +3055,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sleep Test</t>
+          <t>Patient does not have: Sleep Test</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -3023,7 +3063,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Anticholinesterase Test</t>
+          <t>Patient does not have: Anticholinesterase Test</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -3031,7 +3071,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ice Test</t>
+          <t>Patient does not have: Ice Test</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -3039,7 +3079,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Rest Test</t>
+          <t>Patient does not have: Rest Test</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -3047,7 +3087,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Quiver eye movements</t>
+          <t>Patient does not have: Quiver eye movements</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -3055,7 +3095,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Peek Sign</t>
+          <t>Patient does not have: Peek Sign</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -3090,7 +3130,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>No pain when seated</t>
+          <t>Patient has: No pain when seated</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -3098,7 +3138,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Burning sensation around the buttocks, Intermittent priapism associated with walking, or both</t>
+          <t>Patient has: Burning sensation around the buttocks, Intermittent priapism associated with walking, or both</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -3106,7 +3146,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Urinary disturbance</t>
+          <t>Patient has: Urinary disturbance</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -3114,7 +3154,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Improvement when bending forward</t>
+          <t>Patient has: Improvement when bending forward</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -3122,7 +3162,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bilateral buttock or leg</t>
+          <t>Patient has: Bilateral buttock or leg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -3130,7 +3170,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Neurogenic claudication</t>
+          <t>Patient has: Neurogenic claudication</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -3138,7 +3178,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Numbness of perineal region</t>
+          <t>Patient has: Numbness of perineal region</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -3146,7 +3186,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Improve when seated</t>
+          <t>Patient has: Improve when seated</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -3154,7 +3194,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Exacerbation when standing up</t>
+          <t>Patient has: Exacerbation when standing up</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -3162,7 +3202,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bilateral plantar numbness</t>
+          <t>Patient has: Bilateral plantar numbness</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -3170,7 +3210,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Treatment for symptoms needs to be repeated every year</t>
+          <t>Patient has: Treatment for symptoms needs to be repeated every year</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -3178,7 +3218,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Orthopedic disease</t>
+          <t>Patient has: Orthopedic disease</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -3186,7 +3226,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Pain below buttocks</t>
+          <t>Patient has: Pain below buttocks</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -3194,7 +3234,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Exacerbated while standing up</t>
+          <t>Patient has: Exacerbated while standing up</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -3202,7 +3242,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Wake up to urinate at night</t>
+          <t>Patient has: Wake up to urinate at night</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -3210,7 +3250,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Thigh</t>
+          <t>Patient has: Thigh</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -3218,7 +3258,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Gluteal</t>
+          <t>Patient has: Gluteal</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -3226,7 +3266,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Wide-based gait</t>
+          <t>Patient has: Wide-based gait</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -3234,7 +3274,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Abnormal Romberg test result</t>
+          <t>Patient has: Abnormal Romberg test result</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -3242,7 +3282,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Vibration deficit</t>
+          <t>Patient has: Vibration deficit</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -3250,7 +3290,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pinprick deficit</t>
+          <t>Patient has: Pinprick deficit</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -3258,7 +3298,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Age &gt;65 (vs ≤65)</t>
+          <t>Patient has: Age &gt;65 (vs ≤65)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -3266,7 +3306,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Weakness</t>
+          <t>Patient has: Weakness</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -3274,7 +3314,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Absent Achilles reflex</t>
+          <t>Patient has: Absent Achilles reflex</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -3282,7 +3322,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>No pain with flexion</t>
+          <t>Patient has: No pain with flexion</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -3290,7 +3330,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Symptoms worsened with bending forward</t>
+          <t>Patient has: Symptoms worsened with bending forward</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -3298,7 +3338,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Neurogenic claudication</t>
+          <t>Patient does not have: Neurogenic claudication</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -3306,7 +3346,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Pain below buttocks</t>
+          <t>Patient does not have: Pain below buttocks</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -3314,7 +3354,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Thigh</t>
+          <t>Patient does not have: Thigh</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -3322,7 +3362,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Exacerbated while standing up</t>
+          <t>Patient does not have: Exacerbated while standing up</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -3330,7 +3370,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Exacerbation when standing up</t>
+          <t>Patient does not have: Exacerbation when standing up</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -3338,7 +3378,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Wake up to urinate at night</t>
+          <t>Patient does not have: Wake up to urinate at night</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -3346,7 +3386,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Improvement when bending forward</t>
+          <t>Patient does not have: Improvement when bending forward</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -3354,7 +3394,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Bilateral buttock or leg</t>
+          <t>Patient does not have: Bilateral buttock or leg</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -3362,7 +3402,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>No pain when seated</t>
+          <t>Patient does not have: pain when seated</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -3370,7 +3410,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Improve when seated</t>
+          <t>Patient does not have: Improve when seated</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -3378,7 +3418,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Treatment for symptoms needs to be repeated every year</t>
+          <t>Patient does not have: Treatment for symptoms needs to be repeated every year</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -3386,7 +3426,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Bilateral plantar numbness</t>
+          <t>Patient does not have: Bilateral plantar numbness</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -3394,7 +3434,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Urinary disturbance</t>
+          <t>Patient does not have: Urinary disturbance</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -3402,7 +3442,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Orthopedic disease</t>
+          <t>Patient does not have: Orthopedic disease</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -3410,7 +3450,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Burning sensation around the buttocks, Intermittent priapism associated with walking, or both</t>
+          <t>Patient does not have: Burning sensation around the buttocks, Intermittent priapism associated with walking, or both</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -3418,7 +3458,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Numbness of perineal region</t>
+          <t>Patient does not have: Numbness of perineal region</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -3426,7 +3466,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Gluteal</t>
+          <t>Patient does not have: Gluteal</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -3434,7 +3474,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Pain below buttocks</t>
+          <t>Patient does not have: Pain below buttocks</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -3442,7 +3482,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Age &gt;65 (vs ≤65)</t>
+          <t>Patient does not have: Age &gt;65 (vs ≤65)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -3450,7 +3490,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Thigh</t>
+          <t>Patient does not have: Thigh</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -3458,7 +3498,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Exacerbated while standing up</t>
+          <t>Patient does not have: Exacerbated while standing up</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -3466,7 +3506,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Exacerbation when standing up</t>
+          <t>Patient does not have: Exacerbation when standing up</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -3474,7 +3514,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>No pain with flexion</t>
+          <t>Patient does not have: pain with flexion</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -3482,7 +3522,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Wake up to urinate at night</t>
+          <t>Patient does not have: Wake up to urinate at night</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -3490,7 +3530,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Improvement when bending forward</t>
+          <t>Patient does not have: Improvement when bending forward</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -3498,7 +3538,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Bilateral buttock or leg</t>
+          <t>Patient does not have: Bilateral buttock or leg</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -3506,7 +3546,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Vibration deficit</t>
+          <t>Patient does not have: Vibration deficit</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -3514,7 +3554,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>No pain when seated</t>
+          <t>Patient does not have: pain when seated</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -3522,7 +3562,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Improve when seated</t>
+          <t>Patient does not have: Improve when seated</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -3530,7 +3570,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Wide-based gait</t>
+          <t>Patient does not have: Wide-based gait</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -3538,7 +3578,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Pinprick deficit</t>
+          <t>Patient does not have: Pinprick deficit</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -3546,7 +3586,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Abnormal Romberg test result</t>
+          <t>Patient does not have: Abnormal Romberg test result</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -3554,7 +3594,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Weakness</t>
+          <t>Patient does not have: Weakness</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -3562,7 +3602,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Absent Achilles reflex</t>
+          <t>Patient does not have: Absent Achilles reflex</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -3570,7 +3610,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Treatment for symptoms needs to be repeated every year</t>
+          <t>Patient does not have: Treatment for symptoms needs to be repeated every year</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -3578,7 +3618,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Bilateral plantar numbness</t>
+          <t>Patient does not have: Bilateral plantar numbness</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -3586,7 +3626,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Urinary disturbance</t>
+          <t>Patient does not have: Urinary disturbance</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -3594,7 +3634,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Orthopedic disease</t>
+          <t>Patient does not have: Orthopedic disease</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -3602,7 +3642,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Burning sensation around the buttocks, Intermittent priapism associated with walking, or both</t>
+          <t>Patient does not have: Burning sensation around the buttocks, Intermittent priapism associated with walking, or both</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -3610,7 +3650,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Numbness of perineal region</t>
+          <t>Patient does not have: Numbness of perineal region</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -3618,7 +3658,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Symptoms induced by having patients bend forward</t>
+          <t>Patient does not have: Symptoms induced by having patients bend forward</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -3626,7 +3666,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Gluteal</t>
+          <t>Patient does not have: Gluteal</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -3661,7 +3701,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Beaded temporal artery</t>
+          <t>Patient has: Beaded temporal artery</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -3669,7 +3709,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Prominent or enlarged temporal artery</t>
+          <t>Patient has: Prominent or enlarged temporal artery</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -3677,7 +3717,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jaw claudication</t>
+          <t>Patient has: Jaw claudication</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -3685,7 +3725,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Diplopia</t>
+          <t>Patient has: Diplopia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -3693,7 +3733,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absent temporal artery pulse</t>
+          <t>Patient has: Absent temporal artery pulse</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -3701,7 +3741,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tender temporal artery</t>
+          <t>Patient has: Tender temporal artery</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -3709,7 +3749,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Any temporal artery abnormality</t>
+          <t>Patient has: Any temporal artery abnormality</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -3717,7 +3757,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ESR &gt; 100 mm/h</t>
+          <t>Patient has: ESR &gt; 100 mm/h</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -3725,7 +3765,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Scalp tenderness</t>
+          <t>Patient has: Scalp tenderness</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -3733,7 +3773,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Optic atrophy or ischemic optic neuropathy</t>
+          <t>Patient has: Optic atrophy or ischemic optic neuropathy</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -3741,7 +3781,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Anemia</t>
+          <t>Patient has: Anemia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -3749,7 +3789,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Temporal headache</t>
+          <t>Patient has: Temporal headache</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -3757,7 +3797,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Weight loss</t>
+          <t>Patient has: Weight loss</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -3765,7 +3805,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Any headache</t>
+          <t>Patient has: Any headache</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -3773,7 +3813,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ESR &gt; 50 mm/h</t>
+          <t>Patient has: ESR &gt; 50 mm/h</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -3781,7 +3821,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fatigue</t>
+          <t>Patient has: Fatigue</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -3789,7 +3829,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fever</t>
+          <t>Patient has: Fever</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -3797,7 +3837,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Anorexia</t>
+          <t>Patient has: Anorexia</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -3805,7 +3845,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ESR abnormal</t>
+          <t>Patient has: ESR abnormal</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -3813,7 +3853,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>White Race</t>
+          <t>Patient has: White Race</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -3821,7 +3861,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Any visual symptom</t>
+          <t>Patient has: Any visual symptom</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -3829,7 +3869,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Arthralgia</t>
+          <t>Patient has: Arthralgia</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -3837,7 +3877,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Any funduscopic abnormality</t>
+          <t>Patient has: Any funduscopic abnormality</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -3845,7 +3885,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Polymyalgia rheumatica</t>
+          <t>Patient has: Polymyalgia rheumatica</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -3853,7 +3893,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Myalgia</t>
+          <t>Patient has: Myalgia</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -3861,7 +3901,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Unilateral visual loss</t>
+          <t>Patient has: Unilateral visual loss</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -3869,7 +3909,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Male se×</t>
+          <t>Patient has: Male se×</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -3877,7 +3917,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Vertigo</t>
+          <t>Patient has: Vertigo</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -3885,7 +3925,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Synovitis</t>
+          <t>Patient has: Synovitis</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -3893,7 +3933,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ESR abnormal</t>
+          <t>Patient does not have: ESR abnormal</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -3901,7 +3941,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ESR &gt; 50 mm/h</t>
+          <t>Patient does not have: ESR &gt; 50 mm/h</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -3909,7 +3949,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Any temporal artery abnormality</t>
+          <t>Patient does not have: Any temporal artery abnormality</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -3917,7 +3957,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Prominent or enlarged temporal artery</t>
+          <t>Patient does not have: Prominent or enlarged temporal artery</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -3925,7 +3965,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Any headache</t>
+          <t>Patient does not have: Any headache</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -3933,7 +3973,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Absent temporal artery pulse</t>
+          <t>Patient does not have: Absent temporal artery pulse</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -3941,7 +3981,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Jaw claudication</t>
+          <t>Patient does not have: Jaw claudication</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -3949,7 +3989,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Anemia</t>
+          <t>Patient does not have: Anemia</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -3957,7 +3997,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Optic atrophy or ischemic optic neuropathy</t>
+          <t>Patient does not have: Optic atrophy or ischemic optic neuropathy</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -3965,7 +4005,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ESR &gt; 100 mm/h</t>
+          <t>Patient does not have: ESR &gt; 100 mm/h</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -3973,7 +4013,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Temporal headache</t>
+          <t>Patient does not have: Temporal headache</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -3981,7 +4021,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Tender temporal artery</t>
+          <t>Patient does not have: Tender temporal artery</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -3989,7 +4029,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Anorexia</t>
+          <t>Patient does not have: Anorexia</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -3997,7 +4037,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Weight loss</t>
+          <t>Patient does not have: Weight loss</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -4005,7 +4045,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fever</t>
+          <t>Patient does not have: Fever</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -4013,7 +4053,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Scalp tenderness</t>
+          <t>Patient does not have: Scalp tenderness</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -4021,7 +4061,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Beaded temporal artery</t>
+          <t>Patient does not have: Beaded temporal artery</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -4029,7 +4069,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Fatigue</t>
+          <t>Patient does not have: Fatigue</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -4037,7 +4077,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Diplopia</t>
+          <t>Patient does not have: Diplopia</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -4045,7 +4085,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Any visual symptom</t>
+          <t>Patient does not have: Any visual symptom</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -4053,7 +4093,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Polymyalgia rheumatica</t>
+          <t>Patient does not have: Polymyalgia rheumatica</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -4061,7 +4101,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Arthralgia</t>
+          <t>Patient does not have: Arthralgia</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -4069,7 +4109,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Any funduscopic abnormality</t>
+          <t>Patient does not have: Any funduscopic abnormality</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -4077,7 +4117,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Myalgia</t>
+          <t>Patient does not have: Myalgia</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -4085,7 +4125,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Vertigo</t>
+          <t>Patient does not have: Vertigo</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -4093,7 +4133,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Synovitis</t>
+          <t>Patient does not have: Synovitis</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -4101,7 +4141,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Unilateral visual loss</t>
+          <t>Patient does not have: Unilateral visual loss</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -4136,7 +4176,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Abnormal prior stress test</t>
+          <t>Patient has: Abnormal prior stress test</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -4144,7 +4184,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Peripheral arterial disease</t>
+          <t>Patient has: Peripheral arterial disease</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -4152,7 +4192,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Prior history of CAD</t>
+          <t>Patient has: Prior history of CAD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -4160,7 +4200,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Prior MI</t>
+          <t>Patient has: Prior MI</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -4168,7 +4208,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Diabetes</t>
+          <t>Patient has: Diabetes</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -4176,7 +4216,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CVA</t>
+          <t>Patient has: CVA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -4184,7 +4224,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Male gender</t>
+          <t>Patient has: Male gender</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -4192,7 +4232,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hyperlipidemia</t>
+          <t>Patient has: Hyperlipidemia</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -4200,7 +4240,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hypertension</t>
+          <t>Patient has: Hypertension</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -4208,7 +4248,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Any tobacco use</t>
+          <t>Patient has: Any tobacco use</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -4216,7 +4256,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Family history of CAD</t>
+          <t>Patient has: Family history of CAD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -4224,7 +4264,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Obesity</t>
+          <t>Patient has: Obesity</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -4232,7 +4272,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>History of CABG</t>
+          <t>Patient has: History of CABG</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -4240,7 +4280,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Radiation to both arms</t>
+          <t>Patient has: Radiation to both arms</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -4248,7 +4288,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pain similar to prior ischemia</t>
+          <t>Patient has: Pain similar to prior ischemia</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -4256,7 +4296,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Change in pattern over prior 24 hours</t>
+          <t>Patient has: Change in pattern over prior 24 hours</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -4264,7 +4304,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>"Typical" chest pain</t>
+          <t>Patient has: "Typical" chest pain</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -4272,7 +4312,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pain worse with exertion</t>
+          <t>Patient has: Pain worse with exertion</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -4280,7 +4320,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Radiation to neck or jaw</t>
+          <t>Patient has: Radiation to neck or jaw</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -4288,7 +4328,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Recent episode of similar pain</t>
+          <t>Patient has: Recent episode of similar pain</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -4296,7 +4336,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Radiation to left arm</t>
+          <t>Patient has: Radiation to left arm</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -4304,7 +4344,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Radiation to right arm</t>
+          <t>Patient has: Radiation to right arm</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -4312,7 +4352,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pain with diaphoresis</t>
+          <t>Patient has: Pain with diaphoresis</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -4320,7 +4360,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Pain with dyspnea</t>
+          <t>Patient has: Pain with dyspnea</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -4328,7 +4368,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Abrupt onset</t>
+          <t>Patient has: Abrupt onset</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -4336,7 +4376,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Any improvement with nitroglycerin</t>
+          <t>Patient has: Any improvement with nitroglycerin</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -4344,7 +4384,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>"Typical" radiation</t>
+          <t>Patient has: "Typical" radiation</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -4352,7 +4392,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Burning pain</t>
+          <t>Patient has: Burning pain</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -4360,7 +4400,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Associated nausea/vomiting</t>
+          <t>Patient has: Associated nausea/vomiting</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -4368,7 +4408,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Associated palpitations</t>
+          <t>Patient has: Associated palpitations</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -4376,7 +4416,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Associated syncope</t>
+          <t>Patient has: Associated syncope</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -4384,7 +4424,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pleuritic pain</t>
+          <t>Patient has: Pleuritic pain</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -4392,7 +4432,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hypotension (SBP&lt;100)</t>
+          <t>Patient has: Hypotension (SBP&lt;100)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -4400,7 +4440,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Lung rales</t>
+          <t>Patient has: Lung rales</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -4408,7 +4448,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tachypnea</t>
+          <t>Patient has: Tachypnea</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -4416,7 +4456,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Tachycardia (heart rate&gt;120)</t>
+          <t>Patient has: Tachycardia (heart rate&gt;120)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -4424,7 +4464,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Pain reproduced on palpation</t>
+          <t>Patient has: Pain reproduced on palpation</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -4432,7 +4472,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ST depression</t>
+          <t>Patient has: ST depression</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -4440,7 +4480,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ischemic ECG</t>
+          <t>Patient has: Ischemic ECG</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -4448,7 +4488,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>T wave inversion</t>
+          <t>Patient has: T wave inversion</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -4456,7 +4496,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HEART score 7-10</t>
+          <t>Patient has: HEART score 7-10</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -4464,7 +4504,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TIMI score 5-7</t>
+          <t>Patient has: TIMI score 5-7</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -4472,7 +4512,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HEART score 5-6</t>
+          <t>Patient has: HEART score 5-6</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -4480,7 +4520,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TIMI score 3-4</t>
+          <t>Patient has: TIMI score 3-4</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -4488,7 +4528,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HFA/CSANZ rule (high risk)</t>
+          <t>Patient has: HFA/CSANZ rule (high risk)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -4496,7 +4536,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HEART score 4</t>
+          <t>Patient has: HEART score 4</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -4504,7 +4544,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TIMI score 2</t>
+          <t>Patient has: TIMI score 2</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -4512,7 +4552,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HEART score 0-3</t>
+          <t>Patient has: HEART score 0-3</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -4520,7 +4560,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TIMI score 0-1</t>
+          <t>Patient has: TIMI score 0-1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -4528,7 +4568,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HFA/CSANZ rule (low to intermediate)</t>
+          <t>Patient has: HFA/CSANZ rule (low to intermediate)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -4536,7 +4576,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Male gender</t>
+          <t>Patient does not have: Male gender</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -4544,7 +4584,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Prior history of CAD</t>
+          <t>Patient does not have: Prior history of CAD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -4552,7 +4592,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Hypertension</t>
+          <t>Patient does not have: Hypertension</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -4560,7 +4600,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Hyperlipidemia</t>
+          <t>Patient does not have: Hyperlipidemia</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -4568,7 +4608,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Prior MI</t>
+          <t>Patient does not have: Prior MI</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -4576,7 +4616,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Diabetes</t>
+          <t>Patient does not have: Diabetes</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -4584,7 +4624,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Abnormal prior stress test</t>
+          <t>Patient does not have: Abnormal prior stress test</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -4592,7 +4632,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Any tobacco use</t>
+          <t>Patient does not have: Any tobacco use</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -4600,7 +4640,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Peripheral arterial disease</t>
+          <t>Patient does not have: Peripheral arterial disease</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -4608,7 +4648,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CVA</t>
+          <t>Patient does not have: CVA</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -4616,7 +4656,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Obesity</t>
+          <t>Patient does not have: Obesity</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -4624,7 +4664,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Family history of CAD</t>
+          <t>Patient does not have: Family history of CAD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -4632,7 +4672,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>History of CABG</t>
+          <t>Patient does not have: History of CABG</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -4640,7 +4680,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>"Typical" chest pain</t>
+          <t>Patient does not have: "Typical" chest pain</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -4648,7 +4688,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Pain worse with exertion</t>
+          <t>Patient does not have: Pain worse with exertion</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -4656,7 +4696,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Pain similar to prior ischemia</t>
+          <t>Patient does not have: Pain similar to prior ischemia</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -4664,7 +4704,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Abrupt onset</t>
+          <t>Patient does not have: Abrupt onset</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -4672,7 +4712,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>"Typical" radiation</t>
+          <t>Patient does not have: "Typical" radiation</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -4680,7 +4720,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Recent episode of similar pain</t>
+          <t>Patient does not have: Recent episode of similar pain</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -4688,7 +4728,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Change in pattern over prior 24 hours</t>
+          <t>Patient does not have: Change in pattern over prior 24 hours</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -4696,7 +4736,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Radiation to left arm</t>
+          <t>Patient does not have: Radiation to left arm</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -4704,7 +4744,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Pain with dyspnea</t>
+          <t>Patient does not have: Pain with dyspnea</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -4712,7 +4752,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Any improvement with nitroglycerin</t>
+          <t>Patient does not have: Any improvement with nitroglycerin</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -4720,7 +4760,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Radiation to neck or jaw</t>
+          <t>Patient does not have: Radiation to neck or jaw</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -4728,7 +4768,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Pain with diaphoresis</t>
+          <t>Patient does not have: Pain with diaphoresis</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -4736,7 +4776,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Radiation to both arms</t>
+          <t>Patient does not have: Radiation to both arms</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -4744,7 +4784,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Burning pain</t>
+          <t>Patient does not have: Burning pain</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -4752,7 +4792,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Associated nausea/vomiting</t>
+          <t>Patient does not have: Associated nausea/vomiting</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -4760,7 +4800,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Radiation to right arm</t>
+          <t>Patient does not have: Radiation to right arm</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -4768,7 +4808,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Associated palpitations</t>
+          <t>Patient does not have: Associated palpitations</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -4776,7 +4816,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Associated syncope</t>
+          <t>Patient does not have: Associated syncope</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -4784,7 +4824,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Pleuritic pain</t>
+          <t>Patient does not have: Pleuritic pain</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -4792,7 +4832,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Tachypnea</t>
+          <t>Patient does not have: Tachypnea</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -4800,7 +4840,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Lung rales</t>
+          <t>Patient does not have: Lung rales</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -4808,7 +4848,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Hypotension (SBP &lt;100)</t>
+          <t>Patient does not have: Hypotension (SBP &lt;100)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -4816,7 +4856,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Tachycardia (HR &gt;120)</t>
+          <t>Patient does not have: Tachycardia (HR &gt;120)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -4824,7 +4864,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Pain reproduced on palpation</t>
+          <t>Patient does not have: Pain reproduced on palpation</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -4832,7 +4872,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Ischemic ECG</t>
+          <t>Patient does not have: Ischemic ECG</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -4840,7 +4880,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ST depression</t>
+          <t>Patient does not have: ST depression</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -4848,7 +4888,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>T wave inversion</t>
+          <t>Patient does not have: T wave inversion</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -4883,7 +4923,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Flick Sign</t>
+          <t>Patient has: Flick Sign</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -4891,7 +4931,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Closed Fist Sign</t>
+          <t>Patient has: Closed Fist Sign</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -4899,7 +4939,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hypalgesia</t>
+          <t>Patient has: Hypalgesia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -4907,7 +4947,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Square Hand Sign</t>
+          <t>Patient has: Square Hand Sign</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -4915,7 +4955,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Classical or
+          <t>Patient has: Classical or
   Probable (Hand diagram, JAMA 2000)</t>
         </is>
       </c>
@@ -4924,7 +4964,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Weak Thumb
+          <t>Patient has: Weak Thumb
   Abduction</t>
         </is>
       </c>
@@ -4933,7 +4973,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Thenar Atrophy</t>
+          <t>Patient has: Thenar Atrophy</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -4941,7 +4981,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Abnormal Vibration</t>
+          <t>Patient has: Abnormal Vibration</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -4949,7 +4989,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Abnormal
+          <t>Patient has: Abnormal
   Monofilament</t>
         </is>
       </c>
@@ -4958,7 +4998,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bilateral Symptoms</t>
+          <t>Patient has: Bilateral Symptoms</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -4966,7 +5006,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tinnel Sign</t>
+          <t>Patient has: Tinnel Sign</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -4974,7 +5014,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Phalen Sign</t>
+          <t>Patient has: Phalen Sign</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -4982,7 +5022,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Age &gt; 40 years</t>
+          <t>Patient has: Age &gt; 40 years</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -4990,7 +5030,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2 point
+          <t>Patient has: 2 point
   discrimination</t>
         </is>
       </c>
@@ -4999,7 +5039,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nocturnal
+          <t>Patient has: Nocturnal
   Paresthesia</t>
         </is>
       </c>
@@ -5008,7 +5048,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pressure
+          <t>Patient has: Pressure
   Provocation Test</t>
         </is>
       </c>
@@ -5017,7 +5057,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Tourniquet Test</t>
+          <t>Patient has: Tourniquet Test</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -5025,7 +5065,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Flick Sign</t>
+          <t>Patient does not have: Flick Sign</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -5033,7 +5073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Closed Fist Sign</t>
+          <t>Patient does not have: Closed Fist Sign</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -5041,7 +5081,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Classical or
+          <t>Patient does not have: Classical or
   Probable  (Hand diagram, JAMA 2000)</t>
         </is>
       </c>
@@ -5050,7 +5090,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Age &gt; 40 years</t>
+          <t>Patient does not have: Age &gt; 40 years</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -5058,7 +5098,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Weak Thumb
+          <t>Patient does not have: Weak Thumb
   Abduction</t>
         </is>
       </c>
@@ -5067,7 +5107,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Square Hand Sign</t>
+          <t>Patient does not have: Square Hand Sign</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -5075,7 +5115,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Bilateral Symptoms</t>
+          <t>Patient does not have: Bilateral Symptoms</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -5083,7 +5123,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nocturnal
+          <t>Patient does not have: Nocturnal
   Paresthesia</t>
         </is>
       </c>
@@ -5092,7 +5132,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Abnormal
+          <t>Patient does not have: Abnormal
   Monofilament</t>
         </is>
       </c>
@@ -5101,7 +5141,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Hypalgesia</t>
+          <t>Patient does not have: Hypalgesia</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -5109,7 +5149,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Phalen Sign</t>
+          <t>Patient does not have: Phalen Sign</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -5117,7 +5157,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Abnormal Vibration</t>
+          <t>Patient does not have: Abnormal Vibration</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -5125,7 +5165,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tinnel Sign</t>
+          <t>Patient does not have: Tinnel Sign</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -5133,7 +5173,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tourniquet Test</t>
+          <t>Patient does not have: Tourniquet Test</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -5141,7 +5181,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Thenar Atrophy</t>
+          <t>Patient does not have: Thenar Atrophy</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -5149,7 +5189,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2 point
+          <t>Patient does not have: 2 point
   discrimination</t>
         </is>
       </c>
@@ -5158,7 +5198,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Pressure
+          <t>Patient does not have: Pressure
   Provocation Test</t>
         </is>
       </c>
@@ -5194,7 +5234,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tearing/Ripping Pain</t>
+          <t>Patient has: Tearing/Ripping Pain</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -5202,7 +5242,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Migrating pain</t>
+          <t>Patient has: Migrating pain</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -5210,7 +5250,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sudden Chest Pain</t>
+          <t>Patient has: Sudden Chest Pain</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -5218,7 +5258,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hx of Hypertension</t>
+          <t>Patient has: Hx of Hypertension</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -5226,7 +5266,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Focal Neurologic Deficit</t>
+          <t>Patient has: Focal Neurologic Deficit</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -5234,7 +5274,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Diastolic Heart Murmur</t>
+          <t>Patient has: Diastolic Heart Murmur</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -5242,7 +5282,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pulse Deficit</t>
+          <t>Patient has: Pulse Deficit</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -5250,7 +5290,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Enlarged Aorta or Wide Mediastinum</t>
+          <t>Patient has: Enlarged Aorta or Wide Mediastinum</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -5258,7 +5298,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LVH on Admission EKG</t>
+          <t>Patient has: LVH on Admission EKG</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -5266,7 +5306,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sudden Chest Pain</t>
+          <t>Patient does not have: Sudden Chest Pain</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -5274,7 +5314,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>History of Hypertension</t>
+          <t>Patient does not have: History of Hypertension</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -5282,7 +5322,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tearing/Ripping Pain</t>
+          <t>Patient does not have: Tearing/Ripping Pain</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -5290,7 +5330,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Migrating Pain</t>
+          <t>Patient does not have: Migrating Pain</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -5298,7 +5338,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pulse deficit</t>
+          <t>Patient does not have: Pulse deficit</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -5306,7 +5346,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Focal Neuro deficit</t>
+          <t>Patient does not have: Focal Neuro deficit</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -5314,7 +5354,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Diastolic murmur</t>
+          <t>Patient does not have: Diastolic murmur</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -5322,7 +5362,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Enlarge aorta or wide mediastinum</t>
+          <t>Patient does not have: Enlarge aorta or wide mediastinum</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -5330,7 +5370,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LVH on admission EKG</t>
+          <t>Patient does not have: LVH on admission EKG</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -5365,7 +5405,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>High Sensitivity D-Dimer with Low Pre-Test Probability</t>
+          <t>Patient has: High Sensitivity D-Dimer with Low Pre-Test Probability</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -5373,7 +5413,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>High Sensitivity D-Dimer with Mod Pre-Test Probability</t>
+          <t>Patient has: High Sensitivity D-Dimer with Mod Pre-Test Probability</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -5381,7 +5421,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>High Sensitivity D-Dimer with High Pre-Test Probability</t>
+          <t>Patient has: High Sensitivity D-Dimer with High Pre-Test Probability</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -5389,7 +5429,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>High Sensitivity D-Dimer with Mod Pre-Test Probability</t>
+          <t>Patient does not have: High Sensitivity D-Dimer with Mod Pre-Test Probability</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -5397,7 +5437,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>High Sensitivity D-Dimer with High Pre-Test Probability</t>
+          <t>Patient does not have: High Sensitivity D-Dimer with High Pre-Test Probability</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -5405,7 +5445,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>High Sensitivity D-Dimer with Low Pre-Test Probability</t>
+          <t>Patient does not have: High Sensitivity D-Dimer with Low Pre-Test Probability</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -5440,7 +5480,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kerley B lines</t>
+          <t>Patient has: Kerley B lines</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -5448,7 +5488,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Interstitial edema</t>
+          <t>Patient has: Interstitial edema</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -5456,7 +5496,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cephalization</t>
+          <t>Patient has: Cephalization</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -5464,7 +5504,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alveolar edema</t>
+          <t>Patient has: Alveolar edema</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -5472,7 +5512,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Positive B-line scan</t>
+          <t>Patient has: Positive B-line scan</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -5480,7 +5520,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Restrictive mitral pattern</t>
+          <t>Patient has: Restrictive mitral pattern</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -5488,7 +5528,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kerley B lines</t>
+          <t>Patient does not have: Kerley B lines</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -5496,7 +5536,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Interstitial edema</t>
+          <t>Patient does not have: Interstitial edema</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -5504,7 +5544,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cephalization</t>
+          <t>Patient does not have: Cephalization</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -5512,7 +5552,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Alveolar edema</t>
+          <t>Patient does not have: Alveolar edema</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -5520,7 +5560,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Positive B-line scan</t>
+          <t>Patient does not have: Positive B-line scan</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -5528,7 +5568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Restrictive mitral pattern</t>
+          <t>Patient does not have: Restrictive mitral pattern</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -5563,7 +5603,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of Atrial fibrillation</t>
+          <t>Patient has: History of Atrial fibrillation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -5571,7 +5611,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of Coronary artery bypass grafting</t>
+          <t>Patient has: History of Coronary artery bypass grafting</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -5579,7 +5619,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of Myocardial infarction</t>
+          <t>Patient has: History of Myocardial infarction</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -5587,7 +5627,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of Diabetes mellitus</t>
+          <t>Patient has: History of Diabetes mellitus</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -5595,7 +5635,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of Coronary artery disease</t>
+          <t>Patient has: History of Coronary artery disease</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -5603,7 +5643,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>History of Angina</t>
+          <t>Patient has: History of Angina</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -5611,7 +5651,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>History of Hypertension</t>
+          <t>Patient has: History of Hypertension</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -5619,7 +5659,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Orthopnea</t>
+          <t>Patient has: Orthopnea</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -5627,7 +5667,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fatigue</t>
+          <t>Patient has: Fatigue</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -5635,7 +5675,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nocturnal cough</t>
+          <t>Patient has: Nocturnal cough</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -5643,7 +5683,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3rd heart sound (ventricullar filling gallop)</t>
+          <t>Patient has: 3rd heart sound (ventricullar filling gallop)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -5651,7 +5691,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JVD</t>
+          <t>Patient has: JVD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -5659,7 +5699,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lower extremity edema</t>
+          <t>Patient has: Lower extremity edema</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -5667,7 +5707,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rales</t>
+          <t>Patient has: Rales</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -5675,7 +5715,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hepatic congestion</t>
+          <t>Patient has: Hepatic congestion</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -5683,7 +5723,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Enlarged heart</t>
+          <t>Patient has: Enlarged heart</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -5691,7 +5731,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Wheezing</t>
+          <t>Patient has: Wheezing</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -5699,7 +5739,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Clinician's Gestalt</t>
+          <t>Patient has: Clinician's Gestalt</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -5707,7 +5747,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Edema</t>
+          <t>Patient has: Edema</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -5715,7 +5755,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cardiolmegaly</t>
+          <t>Patient has: Cardiolmegaly</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -5723,7 +5763,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pleural effusion(s)</t>
+          <t>Patient has: Pleural effusion(s)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -5731,7 +5771,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pneumonia</t>
+          <t>Patient has: Pneumonia</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -5739,7 +5779,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Hyperventilation</t>
+          <t>Patient has: Hyperventilation</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -5747,7 +5787,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Patient has: Normal</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -5755,7 +5795,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Atrial fibrillation</t>
+          <t>Patient has: Atrial fibrillation</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -5763,7 +5803,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ischemic ST-T waves</t>
+          <t>Patient has: Ischemic ST-T waves</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -5771,7 +5811,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Q waves</t>
+          <t>Patient has: Q waves</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -5779,7 +5819,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BNP ≥100 pg/ml</t>
+          <t>Patient has: BNP ≥100 pg/ml</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -5787,7 +5827,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Coronary artery disease</t>
+          <t>Patient does not have: Coronary artery disease</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -5795,7 +5835,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Atrial fibrillation</t>
+          <t>Patient does not have: Atrial fibrillation</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -5803,7 +5843,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Myocardial infarction</t>
+          <t>Patient does not have: Myocardial infarction</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -5811,7 +5851,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hypertension</t>
+          <t>Patient does not have: Hypertension</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -5819,7 +5859,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Diabetes mellitus</t>
+          <t>Patient does not have: Diabetes mellitus</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -5827,7 +5867,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Angina</t>
+          <t>Patient does not have: Angina</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -5835,7 +5875,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Coronary artery bypass grafting</t>
+          <t>Patient does not have: Coronary artery bypass grafting</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -5843,7 +5883,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Orthopnea</t>
+          <t>Patient does not have: Orthopnea</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -5851,7 +5891,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fatigue</t>
+          <t>Patient does not have: Fatigue</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -5859,7 +5899,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Nocturnal cough</t>
+          <t>Patient does not have: Nocturnal cough</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -5867,7 +5907,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Rales</t>
+          <t>Patient does not have: Rales</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -5875,7 +5915,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Lower extremity edema</t>
+          <t>Patient does not have: Lower extremity edema</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -5883,7 +5923,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>JVD</t>
+          <t>Patient does not have: JVD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -5891,7 +5931,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3rd heart sound (ventricullar filling gallop)</t>
+          <t>Patient does not have: 3rd heart sound (ventricullar filling gallop)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -5899,7 +5939,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Hepatic congestion</t>
+          <t>Patient does not have: Hepatic congestion</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -5907,7 +5947,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Enlarged heart</t>
+          <t>Patient does not have: Enlarged heart</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -5915,7 +5955,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Wheezing</t>
+          <t>Patient does not have: Wheezing</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -5923,7 +5963,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Clinician's Gestalt</t>
+          <t>Patient does not have: Clinician's Gestalt</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -5931,7 +5971,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Cardiolmegaly</t>
+          <t>Patient does not have: Cardiolmegaly</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -5939,7 +5979,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Edema</t>
+          <t>Patient does not have: Edema</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -5947,7 +5987,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Pleural effusion(s)</t>
+          <t>Patient does not have: Pleural effusion(s)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -5955,7 +5995,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Pneumonia</t>
+          <t>Patient does not have: Pneumonia</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -5963,7 +6003,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Hyperventilation</t>
+          <t>Patient does not have: Hyperventilation</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -5971,7 +6011,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Patient does not have: Normal</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -5979,7 +6019,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Atrial fibrillation</t>
+          <t>Patient does not have: Atrial fibrillation</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -5987,7 +6027,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Ischemic ST-T waves</t>
+          <t>Patient does not have: Ischemic ST-T waves</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -5995,7 +6035,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Q waves</t>
+          <t>Patient does not have: Q waves</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -6003,7 +6043,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BNP ≥100 pg/ml</t>
+          <t>Patient does not have: BNP ≥100 pg/ml</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -6038,7 +6078,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of Heart Failure</t>
+          <t>Patient has: History of Heart Failure</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -6046,7 +6086,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of Myocardial infarction</t>
+          <t>Patient has: History of Myocardial infarction</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -6054,7 +6094,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of Coronary artery disease</t>
+          <t>Patient has: History of Coronary artery disease</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -6062,7 +6102,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of Dyslipidemia</t>
+          <t>Patient has: History of Dyslipidemia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -6070,7 +6110,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of Diabetes mellitus</t>
+          <t>Patient has: History of Diabetes mellitus</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -6078,7 +6118,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>History of Hypertension</t>
+          <t>Patient has: History of Hypertension</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -6086,7 +6126,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>History of Smoking</t>
+          <t>Patient has: History of Smoking</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -6094,7 +6134,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>History of COPD</t>
+          <t>Patient has: History of COPD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -6102,7 +6142,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Paroxysmal nocturnal dyspnea</t>
+          <t>Patient has: Paroxysmal nocturnal dyspnea</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -6110,7 +6150,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Orthopnea</t>
+          <t>Patient has: Orthopnea</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -6118,7 +6158,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Edema</t>
+          <t>Patient has: Edema</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -6126,7 +6166,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dyspnea on exertion</t>
+          <t>Patient has: Dyspnea on exertion</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -6134,7 +6174,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fatigue and weight gain</t>
+          <t>Patient has: Fatigue and weight gain</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -6142,7 +6182,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cough</t>
+          <t>Patient has: Cough</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -6150,7 +6190,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3rd heart sound (ventricullar filling gallop)</t>
+          <t>Patient has: 3rd heart sound (ventricullar filling gallop)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -6158,7 +6198,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Abdominojugular reflux</t>
+          <t>Patient has: Abdominojugular reflux</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -6166,7 +6206,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>JVD</t>
+          <t>Patient has: JVD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -6174,7 +6214,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Rales</t>
+          <t>Patient has: Rales</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -6182,7 +6222,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Any murmur</t>
+          <t>Patient has: Any murmur</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -6190,7 +6230,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lower extremity edema</t>
+          <t>Patient has: Lower extremity edema</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -6198,7 +6238,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Valsalva maneuver</t>
+          <t>Patient has: Valsalva maneuver</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -6206,7 +6246,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SBP &lt;100 mmHg</t>
+          <t>Patient has: SBP &lt;100 mmHg</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -6214,7 +6254,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4th heart sound (atrial gallop)</t>
+          <t>Patient has: 4th heart sound (atrial gallop)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -6222,7 +6262,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SBP &gt;= 150 mmHg</t>
+          <t>Patient has: SBP &gt;= 150 mmHg</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -6230,7 +6270,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Wheezing</t>
+          <t>Patient has: Wheezing</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -6238,7 +6278,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Clinician's Gestalt</t>
+          <t>Patient has: Clinician's Gestalt</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -6246,7 +6286,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Pulmonary venous congestion</t>
+          <t>Patient has: Pulmonary venous congestion</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -6254,7 +6294,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Interstitial edema</t>
+          <t>Patient has: Interstitial edema</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -6262,7 +6302,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Alveolar edema</t>
+          <t>Patient has: Alveolar edema</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -6270,7 +6310,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cardiomegaly</t>
+          <t>Patient has: Cardiomegaly</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -6278,7 +6318,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pleural effusion(s)</t>
+          <t>Patient has: Pleural effusion(s)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -6286,7 +6326,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Any edema</t>
+          <t>Patient has: Any edema</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -6294,7 +6334,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Pneumonia</t>
+          <t>Patient has: Pneumonia</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -6302,7 +6342,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hyperinflation</t>
+          <t>Patient has: Hyperinflation</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -6310,7 +6350,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Atrial fibrillation</t>
+          <t>Patient has: Atrial fibrillation</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -6318,7 +6358,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>New T-wave changes</t>
+          <t>Patient has: New T-wave changes</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -6326,7 +6366,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Any abnormal finding</t>
+          <t>Patient has: Any abnormal finding</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -6334,7 +6374,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ST elevation</t>
+          <t>Patient has: ST elevation</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -6342,7 +6382,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ST depression</t>
+          <t>Patient has: ST depression</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -6350,7 +6390,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>≥250</t>
+          <t>Patient has: ≥250</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -6358,7 +6398,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>≥200</t>
+          <t>Patient has: ≥200</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -6366,7 +6406,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>≥150</t>
+          <t>Patient has: ≥150</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -6374,7 +6414,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Clinical judgement or BNP ≥100 pg/ml</t>
+          <t>Patient has: Clinical judgement or BNP ≥100 pg/ml</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -6382,7 +6422,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>Patient has: ≥100</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -6390,7 +6430,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>≥50</t>
+          <t>Patient has: ≥50</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -6398,7 +6438,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>History of Heart Failure</t>
+          <t>Patient does not have: History of Heart Failure</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -6406,7 +6446,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>History of Myocardial infarction</t>
+          <t>Patient does not have: History of Myocardial infarction</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -6414,7 +6454,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>History of Coronary artery disease</t>
+          <t>Patient does not have: History of Coronary artery disease</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -6422,7 +6462,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>History of Hypertension</t>
+          <t>Patient does not have: History of Hypertension</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -6430,7 +6470,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>History of Dyslipidemia</t>
+          <t>Patient does not have: History of Dyslipidemia</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -6438,7 +6478,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>History of Diabetes mellitus</t>
+          <t>Patient does not have: History of Diabetes mellitus</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -6446,7 +6486,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>History of Smoking</t>
+          <t>Patient does not have: History of Smoking</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -6454,7 +6494,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>History of COPD</t>
+          <t>Patient does not have: History of COPD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -6462,7 +6502,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Dyspnea on exertion</t>
+          <t>Patient does not have: Dyspnea on exertion</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -6470,7 +6510,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Edema</t>
+          <t>Patient does not have: Edema</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -6478,7 +6518,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Orthopnea</t>
+          <t>Patient does not have: Orthopnea</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -6486,7 +6526,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Paroxysmal nocturnal dyspnea</t>
+          <t>Patient does not have: Paroxysmal nocturnal dyspnea</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -6494,7 +6534,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Fatigue and weight gain</t>
+          <t>Patient does not have: Fatigue and weight gain</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -6502,7 +6542,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Cough</t>
+          <t>Patient does not have: Cough</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -6510,7 +6550,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Valsalva maneuver</t>
+          <t>Patient does not have: Valsalva maneuver</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -6518,7 +6558,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Rales</t>
+          <t>Patient does not have: Rales</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -6526,7 +6566,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Lower extremity edema</t>
+          <t>Patient does not have: Lower extremity edema</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -6534,7 +6574,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>JVD</t>
+          <t>Patient does not have: JVD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -6542,7 +6582,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Abdominojugular reflux</t>
+          <t>Patient does not have: Abdominojugular reflux</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -6550,7 +6590,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Any murmur</t>
+          <t>Patient does not have: Any murmur</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -6558,7 +6598,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3rd heart sound (ventricullar filling gallop)</t>
+          <t>Patient does not have: 3rd heart sound (ventricullar filling gallop)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -6566,7 +6606,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SBP &lt;100 mmHg</t>
+          <t>Patient does not have: SBP &lt;100 mmHg</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -6574,7 +6614,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>4th heart sound (atrial gallop)</t>
+          <t>Patient does not have: 4th heart sound (atrial gallop)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -6582,7 +6622,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SBP ≥ 150 mmHg</t>
+          <t>Patient does not have: SBP ≥ 150 mmHg</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -6590,7 +6630,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ascities</t>
+          <t>Patient does not have: Ascities</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -6598,7 +6638,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Wheezing</t>
+          <t>Patient does not have: Wheezing</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -6606,7 +6646,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Clinician's Gestalt</t>
+          <t>Patient does not have: Clinician's Gestalt</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -6614,7 +6654,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Cardiomegaly</t>
+          <t>Patient does not have: Cardiomegaly</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -6622,7 +6662,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Any edema</t>
+          <t>Patient does not have: Any edema</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -6630,7 +6670,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Pulmonary venous congestion</t>
+          <t>Patient does not have: Pulmonary venous congestion</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -6638,7 +6678,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Interstitial edema</t>
+          <t>Patient does not have: Interstitial edema</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -6646,7 +6686,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Pleural effusion(s)</t>
+          <t>Patient does not have: Pleural effusion(s)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -6654,7 +6694,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Alveolar edema</t>
+          <t>Patient does not have: Alveolar edema</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -6662,7 +6702,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Pneumonia</t>
+          <t>Patient does not have: Pneumonia</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -6670,7 +6710,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Hyperinflation</t>
+          <t>Patient does not have: Hyperinflation</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -6678,7 +6718,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Any abnormal finding</t>
+          <t>Patient does not have: Any abnormal finding</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -6686,7 +6726,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Atrial fibrillation</t>
+          <t>Patient does not have: Atrial fibrillation</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -6694,7 +6734,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>New T-wave changes</t>
+          <t>Patient does not have: New T-wave changes</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -6702,7 +6742,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ST elevation</t>
+          <t>Patient does not have: ST elevation</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -6710,7 +6750,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ST depression</t>
+          <t>Patient does not have: ST depression</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -6718,7 +6758,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>≥50</t>
+          <t>Patient does not have: ≥50</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -6726,7 +6766,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>≥80</t>
+          <t>Patient does not have: ≥80</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -6734,7 +6774,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Clinical judgement or BNP ≥100 pg/ml</t>
+          <t>Patient does not have: Clinical judgement or BNP ≥100 pg/ml</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -6742,7 +6782,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>Patient does not have: ≥100</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -6750,7 +6790,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>≥200</t>
+          <t>Patient does not have: ≥200</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -6758,7 +6798,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>≥250</t>
+          <t>Patient does not have: ≥250</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
@@ -6766,7 +6806,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>≥150</t>
+          <t>Patient does not have: ≥150</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
@@ -6801,7 +6841,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Respiratory variation in vena cava diameter measured by ultrasound in mechanically ventilated patients (dispensability index &gt;15%)*</t>
+          <t>Patient has: Respiratory variation in vena cava diameter measured by ultrasound in mechanically ventilated patients (dispensability index &gt;15%)*</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -6809,7 +6849,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pulse pressure variation in mechanically ventilated patients, Vt &lt;7.0mL/kg:</t>
+          <t>Patient has: Pulse pressure variation in mechanically ventilated patients, Vt &lt;7.0mL/kg:</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -6817,7 +6857,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Respiratory variation in vena cava diameter measured by ultrasound in mechanically ventilated patients (dispensability index &lt;15%)*</t>
+          <t>Patient does not have: Respiratory variation in vena cava diameter measured by ultrasound in mechanically ventilated patients (dispensability index &lt;15%)*</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
